--- a/poi-generated-file.xlsx
+++ b/poi-generated-file.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Client Manager Name</t>
   </si>
@@ -90,19 +90,13 @@
     <t>5-Aug</t>
   </si>
   <si>
-    <t xml:space="preserve">Client Call ( sancjit ) </t>
-  </si>
-  <si>
-    <t>12</t>
+    <t xml:space="preserve">Development ( 1 ) </t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>38</t>
+    <t>7</t>
   </si>
   <si>
     <t>Offshore Consultant's Project Manager's Name :dhananjayKumar@gmail.com</t>
@@ -1157,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="9"/>
     </row>
@@ -1298,22 +1292,22 @@
         <v>22</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="10"/>
     </row>
@@ -1323,7 +1317,7 @@
       </c>
       <c r="C19" s="83"/>
       <c r="D19" s="84" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19" s="84"/>
       <c r="F19" s="84"/>
@@ -1367,7 +1361,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="63"/>
       <c r="D22" s="63"/>
@@ -1413,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="54"/>
       <c r="D25" s="54"/>

--- a/poi-generated-file.xlsx
+++ b/poi-generated-file.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Client Manager Name</t>
   </si>
@@ -90,19 +90,22 @@
     <t>5-Aug</t>
   </si>
   <si>
-    <t xml:space="preserve">Development ( 1 ) </t>
+    <t xml:space="preserve">Holiday ( 1 ) </t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Offshore Consultant's Project Manager's Name :dhananjayKumar@gmail.com</t>
-  </si>
-  <si>
-    <t>Omarcolon@gmail.com</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Offshore Consultant's Project Manager's Name :Dhananjay Kumar</t>
+  </si>
+  <si>
+    <t>Omar Colon</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1169,7 @@
         <v>22</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" s="9"/>
     </row>
@@ -1307,7 +1310,7 @@
         <v>22</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L18" s="10"/>
     </row>
@@ -1317,7 +1320,7 @@
       </c>
       <c r="C19" s="83"/>
       <c r="D19" s="84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19" s="84"/>
       <c r="F19" s="84"/>
@@ -1361,7 +1364,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="63"/>
       <c r="D22" s="63"/>
@@ -1407,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="54"/>
       <c r="D25" s="54"/>

--- a/poi-generated-file.xlsx
+++ b/poi-generated-file.xlsx
@@ -90,7 +90,7 @@
     <t>5-Aug</t>
   </si>
   <si>
-    <t xml:space="preserve">Holiday ( 1 ) </t>
+    <t xml:space="preserve">Development ( 1111 ) </t>
   </si>
   <si>
     <t>1</t>

--- a/poi-generated-file.xlsx
+++ b/poi-generated-file.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Client Manager Name</t>
   </si>
@@ -60,46 +60,43 @@
     <t>Total hours for the week</t>
   </si>
   <si>
-    <t>Tanuj Kathuria</t>
+    <t>Sanchit Aggarwal</t>
   </si>
   <si>
     <t>Teach For America</t>
   </si>
   <si>
-    <t>7/30/2018-8/5/2018</t>
-  </si>
-  <si>
-    <t>30-Jul</t>
-  </si>
-  <si>
-    <t>31-Jul</t>
-  </si>
-  <si>
-    <t>1-Aug</t>
-  </si>
-  <si>
-    <t>2-Aug</t>
-  </si>
-  <si>
-    <t>3-Aug</t>
-  </si>
-  <si>
-    <t>4-Aug</t>
-  </si>
-  <si>
-    <t>5-Aug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development ( 1111 ) </t>
+    <t>8/6/2018-8/12/2018</t>
+  </si>
+  <si>
+    <t>6-Aug</t>
+  </si>
+  <si>
+    <t>7-Aug</t>
+  </si>
+  <si>
+    <t>8-Aug</t>
+  </si>
+  <si>
+    <t>9-Aug</t>
+  </si>
+  <si>
+    <t>10-Aug</t>
+  </si>
+  <si>
+    <t>11-Aug</t>
+  </si>
+  <si>
+    <t>12-Aug</t>
+  </si>
+  <si>
+    <t>Consultant Unpaid</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>7</t>
   </si>
   <si>
     <t>Offshore Consultant's Project Manager's Name :Dhananjay Kumar</t>
@@ -1169,7 +1166,7 @@
         <v>22</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="9"/>
     </row>
@@ -1310,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="10"/>
     </row>
@@ -1320,7 +1317,7 @@
       </c>
       <c r="C19" s="83"/>
       <c r="D19" s="84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="84"/>
       <c r="F19" s="84"/>
@@ -1364,7 +1361,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="63"/>
       <c r="D22" s="63"/>
@@ -1410,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="54"/>
       <c r="D25" s="54"/>

--- a/poi-generated-file.xlsx
+++ b/poi-generated-file.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Client Manager Name</t>
   </si>
@@ -66,37 +66,40 @@
     <t>Teach For America</t>
   </si>
   <si>
-    <t>8/6/2018-8/12/2018</t>
-  </si>
-  <si>
-    <t>6-Aug</t>
-  </si>
-  <si>
-    <t>7-Aug</t>
-  </si>
-  <si>
-    <t>8-Aug</t>
-  </si>
-  <si>
-    <t>9-Aug</t>
-  </si>
-  <si>
-    <t>10-Aug</t>
-  </si>
-  <si>
-    <t>11-Aug</t>
-  </si>
-  <si>
-    <t>12-Aug</t>
-  </si>
-  <si>
-    <t>Consultant Unpaid</t>
+    <t>8/27/2018-9/2/2018</t>
+  </si>
+  <si>
+    <t>27-Aug</t>
+  </si>
+  <si>
+    <t>28-Aug</t>
+  </si>
+  <si>
+    <t>29-Aug</t>
+  </si>
+  <si>
+    <t>30-Aug</t>
+  </si>
+  <si>
+    <t>31-Aug</t>
+  </si>
+  <si>
+    <t>1-Sep</t>
+  </si>
+  <si>
+    <t>2-Sep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultant Unpaid ( 1 ) </t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>7</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>Offshore Consultant's Project Manager's Name :Dhananjay Kumar</t>
@@ -1151,7 +1154,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>22</v>
@@ -1292,7 +1295,7 @@
         <v>22</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>22</v>
@@ -1317,7 +1320,7 @@
       </c>
       <c r="C19" s="83"/>
       <c r="D19" s="84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19" s="84"/>
       <c r="F19" s="84"/>
@@ -1361,7 +1364,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="63"/>
       <c r="D22" s="63"/>
@@ -1407,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="54"/>
       <c r="D25" s="54"/>

--- a/poi-generated-file.xlsx
+++ b/poi-generated-file.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Client Manager Name</t>
   </si>
@@ -66,40 +66,37 @@
     <t>Teach For America</t>
   </si>
   <si>
-    <t>8/27/2018-9/2/2018</t>
-  </si>
-  <si>
-    <t>27-Aug</t>
-  </si>
-  <si>
-    <t>28-Aug</t>
-  </si>
-  <si>
-    <t>29-Aug</t>
-  </si>
-  <si>
-    <t>30-Aug</t>
-  </si>
-  <si>
-    <t>31-Aug</t>
-  </si>
-  <si>
-    <t>1-Sep</t>
-  </si>
-  <si>
-    <t>2-Sep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultant Unpaid ( 1 ) </t>
+    <t>8/13/2018-8/19/2018</t>
+  </si>
+  <si>
+    <t>13-Aug</t>
+  </si>
+  <si>
+    <t>14-Aug</t>
+  </si>
+  <si>
+    <t>15-Aug</t>
+  </si>
+  <si>
+    <t>16-Aug</t>
+  </si>
+  <si>
+    <t>17-Aug</t>
+  </si>
+  <si>
+    <t>18-Aug</t>
+  </si>
+  <si>
+    <t>19-Aug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status Call ( s1 ) </t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>7</t>
   </si>
   <si>
     <t>Offshore Consultant's Project Manager's Name :Dhananjay Kumar</t>
@@ -1154,7 +1151,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>22</v>
@@ -1295,7 +1292,7 @@
         <v>22</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>22</v>
@@ -1320,7 +1317,7 @@
       </c>
       <c r="C19" s="83"/>
       <c r="D19" s="84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="84"/>
       <c r="F19" s="84"/>
@@ -1364,7 +1361,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="63"/>
       <c r="D22" s="63"/>
@@ -1410,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="54"/>
       <c r="D25" s="54"/>

--- a/poi-generated-file.xlsx
+++ b/poi-generated-file.xlsx
@@ -99,10 +99,10 @@
     <t>7</t>
   </si>
   <si>
-    <t>Offshore Consultant's Project Manager's Name :Dhananjay Kumar</t>
-  </si>
-  <si>
-    <t>Omar Colon</t>
+    <t>Offshore Consultant's Project Manager's Name :Vivek sharma</t>
+  </si>
+  <si>
+    <t>Omar</t>
   </si>
 </sst>
 </file>

--- a/poi-generated-file.xlsx
+++ b/poi-generated-file.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Client Manager Name</t>
   </si>
@@ -90,19 +90,22 @@
     <t>19-Aug</t>
   </si>
   <si>
-    <t xml:space="preserve">Status Call ( s1 ) </t>
+    <t xml:space="preserve">q ( bvcvbcbbc ) </t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Offshore Consultant's Project Manager's Name :Vivek sharma</t>
-  </si>
-  <si>
-    <t>Omar</t>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Offshore Consultant's Project Manager's Name :Tanuj Khaturia</t>
+  </si>
+  <si>
+    <t>Omar Colon</t>
   </si>
 </sst>
 </file>
@@ -1157,16 +1160,16 @@
         <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" s="9"/>
     </row>
@@ -1298,16 +1301,16 @@
         <v>22</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L18" s="10"/>
     </row>
@@ -1317,7 +1320,7 @@
       </c>
       <c r="C19" s="83"/>
       <c r="D19" s="84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19" s="84"/>
       <c r="F19" s="84"/>
@@ -1361,7 +1364,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="63"/>
       <c r="D22" s="63"/>
@@ -1407,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="54"/>
       <c r="D25" s="54"/>

--- a/poi-generated-file.xlsx
+++ b/poi-generated-file.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
   <si>
     <t>Client Manager Name</t>
   </si>
@@ -66,40 +66,49 @@
     <t>Teach For America</t>
   </si>
   <si>
-    <t>8/13/2018-8/19/2018</t>
-  </si>
-  <si>
-    <t>13-Aug</t>
-  </si>
-  <si>
-    <t>14-Aug</t>
-  </si>
-  <si>
-    <t>15-Aug</t>
-  </si>
-  <si>
-    <t>16-Aug</t>
-  </si>
-  <si>
-    <t>17-Aug</t>
-  </si>
-  <si>
-    <t>18-Aug</t>
-  </si>
-  <si>
-    <t>19-Aug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q ( bvcvbcbbc ) </t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>8/20/2018-8/26/2018</t>
+  </si>
+  <si>
+    <t>20-Aug</t>
+  </si>
+  <si>
+    <t>21-Aug</t>
+  </si>
+  <si>
+    <t>22-Aug</t>
+  </si>
+  <si>
+    <t>23-Aug</t>
+  </si>
+  <si>
+    <t>24-Aug</t>
+  </si>
+  <si>
+    <t>25-Aug</t>
+  </si>
+  <si>
+    <t>26-Aug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status Call ( ssssssswsw ) </t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>37</t>
+    <t>qsq</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">sqsq ( qsqs ) </t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>Offshore Consultant's Project Manager's Name :Tanuj Khaturia</t>
@@ -1160,130 +1169,138 @@
         <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
-      <c r="B10" s="12"/>
+      <c r="B10" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
-      <c r="B11" s="12"/>
+      <c r="B11" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
-      <c r="B12" s="12"/>
+      <c r="B12" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="C13" s="15"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="73" t="s">
@@ -1301,16 +1318,16 @@
         <v>22</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="10"/>
     </row>
@@ -1320,7 +1337,7 @@
       </c>
       <c r="C19" s="83"/>
       <c r="D19" s="84" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19" s="84"/>
       <c r="F19" s="84"/>
@@ -1364,7 +1381,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C22" s="63"/>
       <c r="D22" s="63"/>
@@ -1410,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C25" s="54"/>
       <c r="D25" s="54"/>
